--- a/data/trans_bre/P5B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 3,38</t>
+          <t>-3,86; 3,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -778,17 +778,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 4,25</t>
+          <t>-1,79; 4,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,0</t>
+          <t>-2,23; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 680,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 4,54</t>
+          <t>-4,02; 4,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 3,9</t>
+          <t>-3,17; 3,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,14</t>
+          <t>-2,33; 1,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,0</t>
+          <t>-2,05; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,28; 191,76</t>
+          <t>-63,05; 154,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,13; 261,68</t>
+          <t>-75,7; 215,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,57</t>
+          <t>-1,17; 3,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,43</t>
+          <t>-3,29; 1,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 5,83</t>
+          <t>-0,18; 5,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 22,25</t>
+          <t>0,52; 22,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-71,41; —</t>
+          <t>-56,3; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,32 +1068,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 6,04</t>
+          <t>-1,76; 5,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 4,96</t>
+          <t>-0,68; 5,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,54</t>
+          <t>-1,76; 2,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 0,07</t>
+          <t>-6,72; -0,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-40,08; 273,38</t>
+          <t>-39,15; 277,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-64,22; —</t>
+          <t>-67,84; 1293,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-91,04; 21,88</t>
+          <t>-91,0; 5,51</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,83</t>
+          <t>-0,88; 2,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,75</t>
+          <t>-0,81; 1,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,9</t>
+          <t>-0,41; 1,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 6,45</t>
+          <t>-1,02; 5,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 135,16</t>
+          <t>-26,17; 116,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,19; 174,73</t>
+          <t>-44,27; 188,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 342,19</t>
+          <t>-30,1; 335,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-66,92; 694,75</t>
+          <t>-70,09; 604,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-5,28%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,79; 3,32</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 3,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,37 +720,37 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,56%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>-35,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 3,91</t>
+          <t>-4,18; 4,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 3,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 4,21</t>
+          <t>-2,27; 1,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,0</t>
+          <t>-1,92; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 680,33</t>
+          <t>-61,73; 167,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,81; 330,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>14,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>90,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>-25,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-35,23%</t>
+          <t>210,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 4,16</t>
+          <t>-1,29; 3,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 3,32</t>
+          <t>-2,75; 1,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 1,11</t>
+          <t>-0,34; 5,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,0</t>
+          <t>0,27; 48,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-63,05; 154,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-75,7; 215,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,08; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>51,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-25,71%</t>
+          <t>142,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>210,65%</t>
+          <t>36,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-60,39%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,69</t>
+          <t>-1,42; 6,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,44</t>
+          <t>-0,53; 5,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 5,61</t>
+          <t>-1,73; 2,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 22,08</t>
+          <t>-6,26; -0,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-34,28; 301,04</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-49,86; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-56,3; —</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,73; 23,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>51,87%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>142,59%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>61,45%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-61,52%</t>
+          <t>267,31%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 5,96</t>
+          <t>-0,96; 2,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 5,24</t>
+          <t>-1,03; 1,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,87</t>
+          <t>-0,51; 1,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,72; -0,23</t>
+          <t>-0,87; 18,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,15; 277,46</t>
+          <t>-24,52; 132,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-67,84; 1293,55</t>
+          <t>-51,07; 158,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,68; 289,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-91,0; 5,51</t>
+          <t>-63,98; 1757,94</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>27,14%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>30,37%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>61,45%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>51,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,88; 2,69</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 1,94</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 1,85</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 5,99</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-26,17; 116,15</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-44,27; 188,5</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-30,1; 335,53</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-70,09; 604,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
